--- a/Planilha-Controle-de-Logistica-e-Expedicao.xlsx
+++ b/Planilha-Controle-de-Logistica-e-Expedicao.xlsx
@@ -871,11 +871,11 @@
         <v>11</v>
       </c>
       <c r="E4" s="14">
-        <v>6202.0</v>
+        <v>8054.0</v>
       </c>
       <c r="F4" s="14">
         <f t="shared" ref="F4:F49" si="1">G4-E4</f>
-        <v>3117418</v>
+        <v>3115566</v>
       </c>
       <c r="G4" s="14">
         <v>3123620.0</v>
@@ -902,11 +902,11 @@
         <v>15</v>
       </c>
       <c r="E5" s="14">
-        <v>5991.0</v>
+        <v>10476.0</v>
       </c>
       <c r="F5" s="14">
         <f t="shared" si="1"/>
-        <v>8651176</v>
+        <v>8646691</v>
       </c>
       <c r="G5" s="14">
         <v>8657167.0</v>
@@ -933,11 +933,11 @@
         <v>15</v>
       </c>
       <c r="E6" s="14">
-        <v>7961.0</v>
+        <v>12871.0</v>
       </c>
       <c r="F6" s="14">
         <f t="shared" si="1"/>
-        <v>4378449</v>
+        <v>4373539</v>
       </c>
       <c r="G6" s="14">
         <v>4386410.0</v>
@@ -964,11 +964,11 @@
         <v>11</v>
       </c>
       <c r="E7" s="14">
-        <v>7619.0</v>
+        <v>11795.0</v>
       </c>
       <c r="F7" s="14">
         <f t="shared" si="1"/>
-        <v>6030128</v>
+        <v>6025952</v>
       </c>
       <c r="G7" s="14">
         <v>6037747.0</v>
@@ -995,11 +995,11 @@
         <v>15</v>
       </c>
       <c r="E8" s="14">
-        <v>6878.0</v>
+        <v>6860.0</v>
       </c>
       <c r="F8" s="14">
         <f t="shared" si="1"/>
-        <v>3775211</v>
+        <v>3775229</v>
       </c>
       <c r="G8" s="14">
         <v>3782089.0</v>
@@ -1026,11 +1026,11 @@
         <v>11</v>
       </c>
       <c r="E9" s="14">
-        <v>7154.0</v>
+        <v>5385.0</v>
       </c>
       <c r="F9" s="14">
         <f t="shared" si="1"/>
-        <v>3114878</v>
+        <v>3116647</v>
       </c>
       <c r="G9" s="14">
         <v>3122032.0</v>
@@ -1057,11 +1057,11 @@
         <v>25</v>
       </c>
       <c r="E10" s="14">
-        <v>6003.0</v>
+        <v>7875.0</v>
       </c>
       <c r="F10" s="14">
         <f t="shared" si="1"/>
-        <v>9177466</v>
+        <v>9175594</v>
       </c>
       <c r="G10" s="14">
         <v>9183469.0</v>
@@ -1088,11 +1088,11 @@
         <v>11</v>
       </c>
       <c r="E11" s="14">
-        <v>6474.0</v>
+        <v>12267.0</v>
       </c>
       <c r="F11" s="14">
         <f t="shared" si="1"/>
-        <v>9186240</v>
+        <v>9180447</v>
       </c>
       <c r="G11" s="14">
         <v>9192714.0</v>
@@ -1119,11 +1119,11 @@
         <v>11</v>
       </c>
       <c r="E12" s="14">
-        <v>6885.0</v>
+        <v>7298.0</v>
       </c>
       <c r="F12" s="14">
         <f t="shared" si="1"/>
-        <v>8587087</v>
+        <v>8586674</v>
       </c>
       <c r="G12" s="14">
         <v>8593972.0</v>
@@ -1150,11 +1150,11 @@
         <v>31</v>
       </c>
       <c r="E13" s="14">
-        <v>8873.0</v>
+        <v>6494.0</v>
       </c>
       <c r="F13" s="14">
         <f t="shared" si="1"/>
-        <v>2917489</v>
+        <v>2919868</v>
       </c>
       <c r="G13" s="14">
         <v>2926362.0</v>
@@ -1181,11 +1181,11 @@
         <v>11</v>
       </c>
       <c r="E14" s="14">
-        <v>5449.0</v>
+        <v>6587.0</v>
       </c>
       <c r="F14" s="14">
         <f t="shared" si="1"/>
-        <v>4792054</v>
+        <v>4790916</v>
       </c>
       <c r="G14" s="14">
         <v>4797503.0</v>
@@ -1212,11 +1212,11 @@
         <v>31</v>
       </c>
       <c r="E15" s="14">
-        <v>5377.0</v>
+        <v>12698.0</v>
       </c>
       <c r="F15" s="14">
         <f t="shared" si="1"/>
-        <v>7250103</v>
+        <v>7242782</v>
       </c>
       <c r="G15" s="14">
         <v>7255480.0</v>
@@ -1243,11 +1243,11 @@
         <v>15</v>
       </c>
       <c r="E16" s="14">
-        <v>6501.0</v>
+        <v>5781.0</v>
       </c>
       <c r="F16" s="14">
         <f t="shared" si="1"/>
-        <v>4206971</v>
+        <v>4207691</v>
       </c>
       <c r="G16" s="14">
         <v>4213472.0</v>
@@ -1274,11 +1274,11 @@
         <v>25</v>
       </c>
       <c r="E17" s="14">
-        <v>7129.0</v>
+        <v>9626.0</v>
       </c>
       <c r="F17" s="14">
         <f t="shared" si="1"/>
-        <v>9938411</v>
+        <v>9935914</v>
       </c>
       <c r="G17" s="14">
         <v>9945540.0</v>
@@ -1305,11 +1305,11 @@
         <v>11</v>
       </c>
       <c r="E18" s="14">
-        <v>6247.0</v>
+        <v>6082.0</v>
       </c>
       <c r="F18" s="14">
         <f t="shared" si="1"/>
-        <v>9954859</v>
+        <v>9955024</v>
       </c>
       <c r="G18" s="14">
         <v>9961106.0</v>
@@ -1336,11 +1336,11 @@
         <v>15</v>
       </c>
       <c r="E19" s="14">
-        <v>5454.0</v>
+        <v>10173.0</v>
       </c>
       <c r="F19" s="14">
         <f t="shared" si="1"/>
-        <v>2384561</v>
+        <v>2379842</v>
       </c>
       <c r="G19" s="14">
         <v>2390015.0</v>
@@ -1367,11 +1367,11 @@
         <v>11</v>
       </c>
       <c r="E20" s="14">
-        <v>8743.0</v>
+        <v>8790.0</v>
       </c>
       <c r="F20" s="14">
         <f t="shared" si="1"/>
-        <v>7041842</v>
+        <v>7041795</v>
       </c>
       <c r="G20" s="14">
         <v>7050585.0</v>
@@ -1398,11 +1398,11 @@
         <v>11</v>
       </c>
       <c r="E21" s="14">
-        <v>7746.0</v>
+        <v>11961.0</v>
       </c>
       <c r="F21" s="14">
         <f t="shared" si="1"/>
-        <v>8356755</v>
+        <v>8352540</v>
       </c>
       <c r="G21" s="14">
         <v>8364501.0</v>
@@ -1429,11 +1429,11 @@
         <v>11</v>
       </c>
       <c r="E22" s="14">
-        <v>5157.0</v>
+        <v>11542.0</v>
       </c>
       <c r="F22" s="14">
         <f t="shared" si="1"/>
-        <v>8277108</v>
+        <v>8270723</v>
       </c>
       <c r="G22" s="14">
         <v>8282265.0</v>
@@ -1460,11 +1460,11 @@
         <v>11</v>
       </c>
       <c r="E23" s="14">
-        <v>6905.0</v>
+        <v>11901.0</v>
       </c>
       <c r="F23" s="14">
         <f t="shared" si="1"/>
-        <v>5275574</v>
+        <v>5270578</v>
       </c>
       <c r="G23" s="14">
         <v>5282479.0</v>
@@ -1491,11 +1491,11 @@
         <v>11</v>
       </c>
       <c r="E24" s="14">
-        <v>6182.0</v>
+        <v>10297.0</v>
       </c>
       <c r="F24" s="14">
         <f t="shared" si="1"/>
-        <v>1269816</v>
+        <v>1265701</v>
       </c>
       <c r="G24" s="14">
         <v>1275998.0</v>
@@ -1522,11 +1522,11 @@
         <v>11</v>
       </c>
       <c r="E25" s="14">
-        <v>7109.0</v>
+        <v>8885.0</v>
       </c>
       <c r="F25" s="14">
         <f t="shared" si="1"/>
-        <v>5162517</v>
+        <v>5160741</v>
       </c>
       <c r="G25" s="14">
         <v>5169626.0</v>
@@ -1553,11 +1553,11 @@
         <v>25</v>
       </c>
       <c r="E26" s="14">
-        <v>5170.0</v>
+        <v>11117.0</v>
       </c>
       <c r="F26" s="14">
         <f t="shared" si="1"/>
-        <v>7070174</v>
+        <v>7064227</v>
       </c>
       <c r="G26" s="14">
         <v>7075344.0</v>
@@ -1584,11 +1584,11 @@
         <v>52</v>
       </c>
       <c r="E27" s="14">
-        <v>8755.0</v>
+        <v>7470.0</v>
       </c>
       <c r="F27" s="14">
         <f t="shared" si="1"/>
-        <v>3124593</v>
+        <v>3125878</v>
       </c>
       <c r="G27" s="14">
         <v>3133348.0</v>
@@ -1615,11 +1615,11 @@
         <v>11</v>
       </c>
       <c r="E28" s="14">
-        <v>6329.0</v>
+        <v>5596.0</v>
       </c>
       <c r="F28" s="14">
         <f t="shared" si="1"/>
-        <v>6802729</v>
+        <v>6803462</v>
       </c>
       <c r="G28" s="14">
         <v>6809058.0</v>
@@ -1646,11 +1646,11 @@
         <v>15</v>
       </c>
       <c r="E29" s="14">
-        <v>7450.0</v>
+        <v>10589.0</v>
       </c>
       <c r="F29" s="14">
         <f t="shared" si="1"/>
-        <v>2508103</v>
+        <v>2504964</v>
       </c>
       <c r="G29" s="14">
         <v>2515553.0</v>
@@ -1677,11 +1677,11 @@
         <v>11</v>
       </c>
       <c r="E30" s="14">
-        <v>7388.0</v>
+        <v>9283.0</v>
       </c>
       <c r="F30" s="14">
         <f t="shared" si="1"/>
-        <v>9848721</v>
+        <v>9846826</v>
       </c>
       <c r="G30" s="14">
         <v>9856109.0</v>
@@ -1708,11 +1708,11 @@
         <v>31</v>
       </c>
       <c r="E31" s="14">
-        <v>8132.0</v>
+        <v>7033.0</v>
       </c>
       <c r="F31" s="14">
         <f t="shared" si="1"/>
-        <v>8340041</v>
+        <v>8341140</v>
       </c>
       <c r="G31" s="14">
         <v>8348173.0</v>
@@ -1739,11 +1739,11 @@
         <v>11</v>
       </c>
       <c r="E32" s="14">
-        <v>6981.0</v>
+        <v>6183.0</v>
       </c>
       <c r="F32" s="14">
         <f t="shared" si="1"/>
-        <v>1082504</v>
+        <v>1083302</v>
       </c>
       <c r="G32" s="14">
         <v>1089485.0</v>
@@ -1770,11 +1770,11 @@
         <v>15</v>
       </c>
       <c r="E33" s="14">
-        <v>5362.0</v>
+        <v>13070.0</v>
       </c>
       <c r="F33" s="14">
         <f t="shared" si="1"/>
-        <v>3799595</v>
+        <v>3791887</v>
       </c>
       <c r="G33" s="14">
         <v>3804957.0</v>
@@ -1801,11 +1801,11 @@
         <v>31</v>
       </c>
       <c r="E34" s="14">
-        <v>8058.0</v>
+        <v>8279.0</v>
       </c>
       <c r="F34" s="14">
         <f t="shared" si="1"/>
-        <v>4877911</v>
+        <v>4877690</v>
       </c>
       <c r="G34" s="14">
         <v>4885969.0</v>
@@ -1832,11 +1832,11 @@
         <v>11</v>
       </c>
       <c r="E35" s="14">
-        <v>7426.0</v>
+        <v>6469.0</v>
       </c>
       <c r="F35" s="14">
         <f t="shared" si="1"/>
-        <v>2377164</v>
+        <v>2378121</v>
       </c>
       <c r="G35" s="14">
         <v>2384590.0</v>
@@ -1863,11 +1863,11 @@
         <v>11</v>
       </c>
       <c r="E36" s="14">
-        <v>8861.0</v>
+        <v>5041.0</v>
       </c>
       <c r="F36" s="14">
         <f t="shared" si="1"/>
-        <v>8320202</v>
+        <v>8324022</v>
       </c>
       <c r="G36" s="14">
         <v>8329063.0</v>
@@ -1894,11 +1894,11 @@
         <v>52</v>
       </c>
       <c r="E37" s="14">
-        <v>7198.0</v>
+        <v>12891.0</v>
       </c>
       <c r="F37" s="14">
         <f t="shared" si="1"/>
-        <v>7840452</v>
+        <v>7834759</v>
       </c>
       <c r="G37" s="14">
         <v>7847650.0</v>
@@ -1925,11 +1925,11 @@
         <v>25</v>
       </c>
       <c r="E38" s="14">
-        <v>8590.0</v>
+        <v>6165.0</v>
       </c>
       <c r="F38" s="14">
         <f t="shared" si="1"/>
-        <v>9115649</v>
+        <v>9118074</v>
       </c>
       <c r="G38" s="14">
         <v>9124239.0</v>
@@ -1956,11 +1956,11 @@
         <v>15</v>
       </c>
       <c r="E39" s="14">
-        <v>6399.0</v>
+        <v>9627.0</v>
       </c>
       <c r="F39" s="14">
         <f t="shared" si="1"/>
-        <v>4938348</v>
+        <v>4935120</v>
       </c>
       <c r="G39" s="14">
         <v>4944747.0</v>
@@ -1987,11 +1987,11 @@
         <v>11</v>
       </c>
       <c r="E40" s="14">
-        <v>8367.0</v>
+        <v>10069.0</v>
       </c>
       <c r="F40" s="14">
         <f t="shared" si="1"/>
-        <v>1232851</v>
+        <v>1231149</v>
       </c>
       <c r="G40" s="14">
         <v>1241218.0</v>
@@ -2018,11 +2018,11 @@
         <v>11</v>
       </c>
       <c r="E41" s="14">
-        <v>8529.0</v>
+        <v>9580.0</v>
       </c>
       <c r="F41" s="14">
         <f t="shared" si="1"/>
-        <v>8641421</v>
+        <v>8640370</v>
       </c>
       <c r="G41" s="14">
         <v>8649950.0</v>
@@ -2049,11 +2049,11 @@
         <v>31</v>
       </c>
       <c r="E42" s="14">
-        <v>5287.0</v>
+        <v>6086.0</v>
       </c>
       <c r="F42" s="14">
         <f t="shared" si="1"/>
-        <v>5821782</v>
+        <v>5820983</v>
       </c>
       <c r="G42" s="14">
         <v>5827069.0</v>
@@ -2080,11 +2080,11 @@
         <v>15</v>
       </c>
       <c r="E43" s="14">
-        <v>7694.0</v>
+        <v>13078.0</v>
       </c>
       <c r="F43" s="14">
         <f t="shared" si="1"/>
-        <v>4582227</v>
+        <v>4576843</v>
       </c>
       <c r="G43" s="14">
         <v>4589921.0</v>
@@ -2111,11 +2111,11 @@
         <v>25</v>
       </c>
       <c r="E44" s="14">
-        <v>8416.0</v>
+        <v>12388.0</v>
       </c>
       <c r="F44" s="14">
         <f t="shared" si="1"/>
-        <v>5946071</v>
+        <v>5942099</v>
       </c>
       <c r="G44" s="14">
         <v>5954487.0</v>
@@ -2142,11 +2142,11 @@
         <v>15</v>
       </c>
       <c r="E45" s="14">
-        <v>7015.0</v>
+        <v>7052.0</v>
       </c>
       <c r="F45" s="14">
         <f t="shared" si="1"/>
-        <v>4219050</v>
+        <v>4219013</v>
       </c>
       <c r="G45" s="14">
         <v>4226065.0</v>
@@ -2173,11 +2173,11 @@
         <v>11</v>
       </c>
       <c r="E46" s="14">
-        <v>5930.0</v>
+        <v>10580.0</v>
       </c>
       <c r="F46" s="14">
         <f t="shared" si="1"/>
-        <v>3811960</v>
+        <v>3807310</v>
       </c>
       <c r="G46" s="14">
         <v>3817890.0</v>
@@ -2204,11 +2204,11 @@
         <v>31</v>
       </c>
       <c r="E47" s="14">
-        <v>6167.0</v>
+        <v>13660.0</v>
       </c>
       <c r="F47" s="14">
         <f t="shared" si="1"/>
-        <v>8891950</v>
+        <v>8884457</v>
       </c>
       <c r="G47" s="14">
         <v>8898117.0</v>
@@ -2235,11 +2235,11 @@
         <v>15</v>
       </c>
       <c r="E48" s="14">
-        <v>8111.0</v>
+        <v>12998.0</v>
       </c>
       <c r="F48" s="14">
         <f t="shared" si="1"/>
-        <v>8921953</v>
+        <v>8917066</v>
       </c>
       <c r="G48" s="14">
         <v>8930064.0</v>
@@ -2266,11 +2266,11 @@
         <v>11</v>
       </c>
       <c r="E49" s="14">
-        <v>6864.0</v>
+        <v>8813.0</v>
       </c>
       <c r="F49" s="14">
         <f t="shared" si="1"/>
-        <v>7313451</v>
+        <v>7311502</v>
       </c>
       <c r="G49" s="14">
         <v>7320315.0</v>
